--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\Documents\GitHub\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DFB937-8408-41BA-8AA8-9EA2058CA3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A07C4-CD11-4B19-A2E6-84B9861C47CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2800" windowWidth="28800" windowHeight="15370" activeTab="4" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Exports" sheetId="3" r:id="rId4"/>
     <sheet name="Number of Businesses" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="29">
   <si>
     <t>Direct Activity</t>
   </si>
@@ -175,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -183,6 +181,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,15 +496,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B97BD-C3B7-4EBC-BBF4-D534DB48B2B7}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -524,8 +526,11 @@
       <c r="G1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -545,10 +550,13 @@
         <v>22500</v>
       </c>
       <c r="G2">
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>21700</v>
+      </c>
+      <c r="H2">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -565,13 +573,16 @@
         <v>0.1003683241252302</v>
       </c>
       <c r="F3">
-        <v>0.10426320667284522</v>
+        <v>0.10238751147842057</v>
       </c>
       <c r="G3">
-        <v>0.10588817417120237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.10700197238658778</v>
+      </c>
+      <c r="H3">
+        <v>9.8652550529355149E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -593,8 +604,11 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -616,8 +630,11 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -637,10 +654,13 @@
         <v>7400</v>
       </c>
       <c r="G9">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7800</v>
+      </c>
+      <c r="H9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -660,10 +680,13 @@
         <v>1600</v>
       </c>
       <c r="G10">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1600</v>
+      </c>
+      <c r="H10">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -683,10 +706,13 @@
         <v>2600</v>
       </c>
       <c r="G11">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2300</v>
+      </c>
+      <c r="H11">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -708,8 +734,11 @@
       <c r="G12">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -731,8 +760,11 @@
       <c r="G13">
         <v>700</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -754,8 +786,11 @@
       <c r="G14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -763,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -777,8 +812,11 @@
       <c r="G15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -800,8 +838,11 @@
       <c r="G16">
         <v>2400</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -823,31 +864,37 @@
       <c r="G18">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>1300</v>
+        <v>2900</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="F19">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2400</v>
+      </c>
+      <c r="H19">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -869,8 +916,11 @@
       <c r="G20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -892,8 +942,11 @@
       <c r="G22">
         <v>900</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -915,8 +968,11 @@
       <c r="G23">
         <v>800</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -938,8 +994,11 @@
       <c r="G24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -956,13 +1015,16 @@
         <v>10000</v>
       </c>
       <c r="F26">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="G26">
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10900</v>
+      </c>
+      <c r="H26">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -982,10 +1044,13 @@
         <v>2100</v>
       </c>
       <c r="G27">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1800</v>
+      </c>
+      <c r="H27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1002,13 +1067,16 @@
         <v>6900</v>
       </c>
       <c r="F28">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G28">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7200</v>
+      </c>
+      <c r="H28">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1028,10 +1096,13 @@
         <v>1200</v>
       </c>
       <c r="G29">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1900</v>
+      </c>
+      <c r="H29">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1048,13 +1119,16 @@
         <v>700</v>
       </c>
       <c r="F31">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G31">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="H31">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1071,13 +1145,16 @@
         <v>700</v>
       </c>
       <c r="F32">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G32">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+      <c r="H32">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1099,8 +1176,11 @@
       <c r="G34">
         <v>300</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1122,13 +1202,16 @@
       <c r="G35">
         <v>300</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
@@ -1144,6 +1227,9 @@
       </c>
       <c r="G36" t="s">
         <v>7</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1153,18 +1239,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7C2C9-85F9-48BC-95E8-7D1E193D12DA}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="B25:G25"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1183,73 +1269,82 @@
       <c r="G1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.85</v>
+        <v>5.8529999999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>5.53</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>5.94</v>
+        <v>5.9414999999999996</v>
       </c>
       <c r="E2" s="1">
-        <v>5.93</v>
+        <v>5.9264999999999999</v>
       </c>
       <c r="F2" s="1">
-        <v>6.25</v>
+        <v>6.2374999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.67</v>
+      </c>
+      <c r="H2">
+        <v>5.5054999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.13393745923866407</v>
+        <v>1.3393745923866407E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.13731996172439076</v>
+        <v>1.3731996172439075E-4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.14351622604137731</v>
+        <v>1.4351622604137732E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.13462739797598899</v>
+        <v>1.3462739797598901E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13646388330858591</v>
+        <v>1.3460729199261953E-4</v>
       </c>
       <c r="G3" s="1">
-        <v>0.13373356673754949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2870860100333689E-4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.3349579302150772E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>2.75</v>
+        <v>2.7534999999999998</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1261,18 +1356,21 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>3.21</v>
+        <v>3.218</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>3.1</v>
+        <v>3.0994999999999999</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1284,13 +1382,16 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>3.04</v>
+        <v>3.0194999999999999</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1298,35 +1399,38 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>3.03</v>
+        <v>3.0255000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>3.39</v>
+        <v>3.3885000000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>3.57</v>
+        <v>3.5684999999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>3.43</v>
+        <v>3.4325000000000001</v>
       </c>
       <c r="F9" s="1">
-        <v>3.54</v>
+        <v>3.5465</v>
       </c>
       <c r="G9" s="1">
-        <v>3.21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.173</v>
+      </c>
+      <c r="H9">
+        <v>3.4895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1338,110 +1442,125 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>0.26</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.61650000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>1.66</v>
+        <v>1.6575</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.57</v>
+        <v>1.5714999999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>1.41</v>
+        <v>1.4139999999999999</v>
       </c>
       <c r="F11" s="1">
-        <v>2.0099999999999998</v>
+        <v>2.0085000000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2975000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.61650000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>0.05</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.11</v>
+        <v>0.107</v>
       </c>
       <c r="E12" s="1">
-        <v>0.03</v>
+        <v>3.2500000000000001E-2</v>
       </c>
       <c r="F12" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="C13" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="D13" s="1">
         <v>0.32</v>
       </c>
       <c r="E13" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>0.36</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.60750000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.01</v>
+        <v>1.4E-2</v>
       </c>
       <c r="F14" s="1">
-        <v>0.01</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>0.01</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1456,15 +1575,18 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>0.8</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -1476,13 +1598,16 @@
         <v>3</v>
       </c>
       <c r="F16" s="1">
-        <v>0.83</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1490,101 +1615,98 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>0.17</v>
+        <v>0.17150000000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>0.17</v>
+        <v>0.16850000000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>0.34</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.22</v>
+        <v>0.2165</v>
       </c>
       <c r="F18" s="1">
-        <v>0.26</v>
+        <v>0.2475</v>
       </c>
       <c r="G18" s="1">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
       <c r="D19" s="1">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="E19" s="1">
-        <v>0.18</v>
+        <v>0.1845</v>
       </c>
       <c r="F19" s="1">
-        <v>0.2</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.185</v>
+      </c>
+      <c r="H19">
+        <v>0.2155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>0.03</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="C20" s="1">
-        <v>0.06</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0.12</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>0.06</v>
+        <v>5.9499999999999997E-2</v>
       </c>
       <c r="G20" s="1">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1">
-        <v>0.37</v>
+        <v>0.3695</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1593,16 +1715,19 @@
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.29349999999999998</v>
       </c>
       <c r="F22" s="1">
-        <v>0.24</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="G22" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1622,10 +1747,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.312</v>
+      </c>
+      <c r="H23">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1645,118 +1773,163 @@
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1">
-        <v>2.14</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1.39</v>
+        <v>1.387</v>
       </c>
       <c r="D26" s="1">
-        <v>1.6</v>
+        <v>1.5994999999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>1.84</v>
+        <v>1.8440000000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.7815000000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.4235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="C27" s="1">
-        <v>0.08</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.15</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="E27" s="1">
-        <v>0.13</v>
+        <v>0.1295</v>
       </c>
       <c r="F27" s="1">
-        <v>0.26</v>
+        <v>0.26150000000000001</v>
       </c>
       <c r="G27" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1">
-        <v>1.88</v>
+        <v>1.8825000000000001</v>
       </c>
       <c r="C28" s="1">
-        <v>1.1100000000000001</v>
+        <v>1.111</v>
       </c>
       <c r="D28" s="1">
-        <v>1.23</v>
+        <v>1.2304999999999999</v>
       </c>
       <c r="E28" s="1">
-        <v>1.5</v>
+        <v>1.5035000000000001</v>
       </c>
       <c r="F28" s="1">
-        <v>1.65</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.381</v>
+      </c>
+      <c r="H28">
+        <v>1.1479999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="1">
-        <v>0.12</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="C29" s="1">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="D29" s="1">
-        <v>0.22</v>
+        <v>0.2215</v>
       </c>
       <c r="E29" s="1">
-        <v>0.21</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>0.15</v>
+        <v>0.1545</v>
       </c>
       <c r="G29" s="1">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1764,10 +1937,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>0.17</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>0.18</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>3</v>
@@ -1776,10 +1949,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H31">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1787,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>0.17</v>
+        <v>0.17449999999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>0.18</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>3</v>
@@ -1799,18 +1975,36 @@
         <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1830,10 +2024,13 @@
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1850,13 +2047,16 @@
         <v>3</v>
       </c>
       <c r="F35" s="1">
-        <v>0.06</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G35" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1876,7 +2076,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>0.03</v>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="H36">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1886,18 +2089,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7DC55-D021-4CFA-B17C-CE7D394C244A}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="J2" sqref="J2:P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.08984375" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1916,8 +2119,14 @@
       <c r="G1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H1">
+        <v>2020</v>
+      </c>
+      <c r="J1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1934,16 +2143,45 @@
         <v>5926.5</v>
       </c>
       <c r="F2" s="1">
-        <v>6249.5</v>
+        <v>6237.5</v>
       </c>
       <c r="G2" s="1">
-        <v>5691.5</v>
+        <v>5670</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5505.5</v>
       </c>
       <c r="J2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <f>B2/$J$1</f>
+        <v>5.8529999999999998</v>
+      </c>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:Q3" si="0">C2/$J$1</f>
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="L2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9414999999999996</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9264999999999999</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2374999999999998</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.67</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5054999999999996</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1960,27 +2198,75 @@
         <v>0.13462739797598899</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13646388330858591</v>
+        <v>0.13460729199261953</v>
       </c>
       <c r="G3">
-        <v>0.13373356673754949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.12870860100333689</v>
+      </c>
+      <c r="H3">
+        <v>0.13349579302150771</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J36" si="1">B3/$J$1</f>
+        <v>1.3393745923866407E-4</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3731996172439075E-4</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4351622604137732E-4</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3462739797598901E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3460729199261953E-4</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2870860100333689E-4</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3349579302150772E-4</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1998,15 +2284,41 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="F6" si="0">F10+F11+F12+F14+F19+F20+F22+F13</f>
-        <v>3205.5</v>
+        <f>F10+F11+F12+F14+F19+F20+F22+F13</f>
+        <v>3218</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7534999999999998</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N36" si="2">F6/$J$1</f>
+        <v>3.218</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2025,27 +2337,56 @@
       </c>
       <c r="F7" s="1">
         <f>F2-F6</f>
-        <v>3044</v>
+        <v>3019.5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0994999999999999</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0194999999999999</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2062,13 +2403,45 @@
         <v>3432.5</v>
       </c>
       <c r="F9" s="1">
-        <v>3540.5</v>
+        <v>3546.5</v>
       </c>
       <c r="G9" s="1">
-        <v>3207.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3173</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3489.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0255000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K36" si="3">C9/$J$1</f>
+        <v>3.3885000000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:L36" si="4">D9/$J$1</f>
+        <v>3.5684999999999998</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ref="M9:M36" si="5">E9/$J$1</f>
+        <v>3.4325000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9:N36" si="6">F9/$J$1</f>
+        <v>3.5465</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O36" si="7">G9/$J$1</f>
+        <v>3.173</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ref="P9:P36" si="8">H9/$J$1</f>
+        <v>3.4895</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2085,13 +2458,42 @@
         <v>3</v>
       </c>
       <c r="F10" s="1">
-        <v>261</v>
+        <v>262.5</v>
       </c>
       <c r="G10" s="1">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>602.5</v>
+      </c>
+      <c r="H10">
+        <v>616.5</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="6"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="7"/>
+        <v>0.60250000000000004</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="8"/>
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2108,13 +2510,44 @@
         <v>1414</v>
       </c>
       <c r="F11" s="1">
-        <v>2007</v>
+        <v>2008.5</v>
       </c>
       <c r="G11" s="1">
         <v>1297.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H11" s="1">
+        <v>616.5</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6575</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5714999999999999</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0085000000000002</v>
+      </c>
+      <c r="O11" s="1">
+        <f>G11/$J$1</f>
+        <v>1.2975000000000001</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="8"/>
+        <v>0.61650000000000005</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2136,8 +2569,39 @@
       <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H12" s="1">
+        <v>72.5</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.107</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="6"/>
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="8"/>
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2154,13 +2618,45 @@
         <v>552.5</v>
       </c>
       <c r="F13" s="1">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G13" s="1">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>490.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>607.5</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.379</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="6"/>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="7"/>
+        <v>0.49049999999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2182,8 +2678,40 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H14" s="1">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="8"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2205,8 +2733,37 @@
       <c r="G15" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H15" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="8"/>
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2228,16 +2785,52 @@
       <c r="G16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="1">
+        <v>842</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2254,13 +2847,45 @@
         <v>216.5</v>
       </c>
       <c r="F18" s="1">
-        <v>258</v>
+        <v>247.5</v>
       </c>
       <c r="G18" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="1">
+        <v>242</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" ref="K18:K36" si="9">C18/$J$1</f>
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" ref="L18:L36" si="10">D18/$J$1</f>
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ref="M18:M36" si="11">E18/$J$1</f>
+        <v>0.2165</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N36" si="12">F18/$J$1</f>
+        <v>0.2475</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:O36" si="13">G18/$J$1</f>
+        <v>0.21</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" ref="P18:P36" si="14">H18/$J$1</f>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2282,8 +2907,40 @@
       <c r="G19" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="1">
+        <v>215.5</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="9"/>
+        <v>0.106</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="10"/>
+        <v>0.224</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="11"/>
+        <v>0.1845</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="12"/>
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="13"/>
+        <v>0.185</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="14"/>
+        <v>0.2155</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2305,16 +2962,56 @@
       <c r="G20" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="10"/>
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="11"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="12"/>
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="14"/>
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2331,13 +3028,43 @@
         <v>293.5</v>
       </c>
       <c r="F22" s="1">
-        <v>235.5</v>
+        <v>243</v>
       </c>
       <c r="G22" s="1">
-        <v>340.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>349.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>191</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3695</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" ref="M22:M36" si="15">E22/$J$1</f>
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:N36" si="16">F22/$J$1</f>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O36" si="17">G22/$J$1</f>
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" ref="P22:P36" si="18">H22/$J$1</f>
+        <v>0.191</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -2357,10 +3084,37 @@
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="H23" s="1">
+        <v>175</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="17"/>
+        <v>0.312</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="18"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2380,18 +3134,74 @@
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>37.5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="17"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ref="K22:K36" si="19">C25/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L22:L36" si="20">D25/$J$1</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2408,13 +3218,45 @@
         <v>1844</v>
       </c>
       <c r="F26" s="1">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="G26" s="1">
-        <v>1772.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1781.5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1423.5</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="19"/>
+        <v>1.387</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="20"/>
+        <v>1.5994999999999999</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="15"/>
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="16"/>
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="17"/>
+        <v>1.7815000000000001</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="18"/>
+        <v>1.4235</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2434,10 +3276,42 @@
         <v>261.5</v>
       </c>
       <c r="G27" s="1">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+      <c r="H27" s="1">
+        <v>119</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="19"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="20"/>
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="15"/>
+        <v>0.1295</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="16"/>
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="17"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="18"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -2454,13 +3328,45 @@
         <v>1503.5</v>
       </c>
       <c r="F28" s="1">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="G28" s="1">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1381</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1148</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8825000000000001</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="19"/>
+        <v>1.111</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="20"/>
+        <v>1.2304999999999999</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="15"/>
+        <v>1.5035000000000001</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="16"/>
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="17"/>
+        <v>1.381</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="18"/>
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -2480,18 +3386,79 @@
         <v>154.5</v>
       </c>
       <c r="G29" s="1">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>238.5</v>
+      </c>
+      <c r="H29" s="1">
+        <v>156.5</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="19"/>
+        <v>0.193</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="20"/>
+        <v>0.2215</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="15"/>
+        <v>0.21149999999999999</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="16"/>
+        <v>0.1545</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="17"/>
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="18"/>
+        <v>0.1565</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2511,10 +3478,39 @@
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="H31" s="1">
+        <v>110</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="19"/>
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="20"/>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="17"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="18"/>
+        <v>0.11</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -2534,18 +3530,76 @@
         <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="H32" s="1">
+        <v>110</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="19"/>
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="20"/>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="17"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="18"/>
+        <v>0.11</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -2565,10 +3619,37 @@
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>83.5</v>
+      </c>
+      <c r="H34" s="1">
+        <v>50</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="17"/>
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2588,10 +3669,38 @@
         <v>63</v>
       </c>
       <c r="G35" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="16"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="17"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="18"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2611,8 +3720,35 @@
         <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>30</v>
-      </c>
+        <v>29.5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="17"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="18"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2624,16 +3760,16 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -2652,8 +3788,11 @@
       <c r="G1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2670,14 +3809,17 @@
         <v>352</v>
       </c>
       <c r="F2" s="1">
-        <v>363</v>
+        <v>363.5</v>
       </c>
       <c r="G2" s="1">
-        <v>378.5</v>
+        <v>388</v>
+      </c>
+      <c r="H2" s="1">
+        <v>384.5</v>
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2694,13 +3836,16 @@
         <v>6.9966209501093224E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>6.9573550551030192E-2</v>
+        <v>6.8955705207246518E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>5.3741303421837285E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5.3425129087779688E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6.2960537088586871E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2708,7 +3853,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2716,7 +3861,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2738,8 +3883,11 @@
       <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2761,8 +3909,11 @@
       <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2770,7 +3921,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2787,13 +3938,16 @@
         <v>77</v>
       </c>
       <c r="F9" s="1">
-        <v>79</v>
+        <v>79.5</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9" s="1">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2813,10 +3967,13 @@
         <v>37</v>
       </c>
       <c r="G10" s="1">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2836,10 +3993,13 @@
         <v>18.5</v>
       </c>
       <c r="G11" s="1">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2859,10 +4019,13 @@
         <v>21.5</v>
       </c>
       <c r="G12" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2884,8 +4047,11 @@
       <c r="G13" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H13" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2907,8 +4073,11 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2930,8 +4099,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2953,8 +4125,11 @@
       <c r="G16" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2962,7 +4137,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2984,8 +4159,11 @@
       <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3007,8 +4185,11 @@
       <c r="G19" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3030,8 +4211,11 @@
       <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3039,7 +4223,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3061,8 +4245,11 @@
       <c r="G22" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3084,8 +4271,11 @@
       <c r="G23" s="1">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3107,8 +4297,11 @@
       <c r="G24" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3116,7 +4309,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3136,10 +4329,13 @@
         <v>143</v>
       </c>
       <c r="G26" s="1">
-        <v>172.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>157.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3159,10 +4355,13 @@
         <v>20</v>
       </c>
       <c r="G27" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6.5</v>
+      </c>
+      <c r="H27">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3184,8 +4383,11 @@
       <c r="G28" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3205,10 +4407,13 @@
         <v>36</v>
       </c>
       <c r="G29" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="H29" s="1">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3216,7 +4421,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3236,10 +4441,13 @@
         <v>13</v>
       </c>
       <c r="G31" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3259,10 +4467,13 @@
         <v>13</v>
       </c>
       <c r="G32" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1">
         <v>0</v>
       </c>
@@ -3282,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3301,11 +4512,14 @@
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="1">
+        <v>12</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3319,21 +4533,24 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -3342,13 +4559,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3358,18 +4578,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D986A7-CF01-4D48-8EAC-6CDCA4225485}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -3388,8 +4608,11 @@
       <c r="G1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3411,8 +4634,11 @@
       <c r="G2" s="3">
         <v>13500</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3432,10 +4658,13 @@
         <v>0.11235955056179775</v>
       </c>
       <c r="G3" s="4">
-        <v>0.20300751879699247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.12345679012345678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3457,8 +4686,11 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3480,31 +4712,37 @@
       <c r="G7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>4500</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>10500</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>2000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>6000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>5500</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>9000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="5">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3526,54 +4764,63 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>2000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>4500</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>1000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>2000</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>2000</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>2500</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>1500</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>4000</v>
       </c>
       <c r="D12">
         <v>500</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>2500</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>2500</v>
       </c>
       <c r="G12">
         <v>500</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3586,7 +4833,7 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>1000</v>
       </c>
       <c r="F13" t="s">
@@ -3595,8 +4842,11 @@
       <c r="G13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3618,8 +4868,11 @@
       <c r="G14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3641,8 +4894,11 @@
       <c r="G15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3664,8 +4920,11 @@
       <c r="G16">
         <v>5000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -3687,8 +4946,11 @@
       <c r="G18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3710,8 +4972,11 @@
       <c r="G19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -3733,8 +4998,11 @@
       <c r="G20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3756,8 +5024,11 @@
       <c r="G22">
         <v>500</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3779,8 +5050,11 @@
       <c r="G23">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3802,8 +5076,11 @@
       <c r="G24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3825,8 +5102,11 @@
       <c r="G26">
         <v>3500</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3848,8 +5128,11 @@
       <c r="G27">
         <v>2000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3871,8 +5154,11 @@
       <c r="G28">
         <v>1500</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3894,8 +5180,11 @@
       <c r="G29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3917,8 +5206,11 @@
       <c r="G31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3940,8 +5232,11 @@
       <c r="G32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3963,16 +5258,19 @@
       <c r="G34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -3986,16 +5284,19 @@
       <c r="G35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -4007,6 +5308,9 @@
         <v>7</v>
       </c>
       <c r="G36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295A07C4-CD11-4B19-A2E6-84B9861C47CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3646186-6B5E-4250-8EB6-8C09D676B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="29">
   <si>
     <t>Direct Activity</t>
   </si>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B97BD-C3B7-4EBC-BBF4-D534DB48B2B7}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,25 +873,25 @@
         <v>15</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C19">
-        <v>2900</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>1300</v>
       </c>
       <c r="E19">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="F19">
-        <v>2000</v>
+        <v>1100</v>
       </c>
       <c r="G19">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="H19">
-        <v>2200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,10 +1471,10 @@
         <v>2.0085000000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>1.2975000000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.61650000000000005</v>
+        <v>1.1884999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.3385</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1780,27 +1780,12 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1907,27 +1892,12 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1982,27 +1952,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -2092,7 +2047,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P36"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,7 +2111,7 @@
         <v>5.8529999999999998</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:Q3" si="0">C2/$J$1</f>
+        <f t="shared" ref="K2:P3" si="0">C2/$J$1</f>
         <v>5.5250000000000004</v>
       </c>
       <c r="L2" s="1">
@@ -2207,7 +2162,7 @@
         <v>0.13349579302150771</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J36" si="1">B3/$J$1</f>
+        <f t="shared" ref="J3:J33" si="1">B3/$J$1</f>
         <v>1.3393745923866407E-4</v>
       </c>
       <c r="K3" s="1">
@@ -2307,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6:N36" si="2">F6/$J$1</f>
+        <f t="shared" ref="N6:N7" si="2">F6/$J$1</f>
         <v>3.218</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -2416,27 +2371,27 @@
         <v>3.0255000000000001</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K36" si="3">C9/$J$1</f>
+        <f t="shared" ref="K9:K14" si="3">C9/$J$1</f>
         <v>3.3885000000000001</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:L36" si="4">D9/$J$1</f>
+        <f t="shared" ref="L9:L14" si="4">D9/$J$1</f>
         <v>3.5684999999999998</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" ref="M9:M36" si="5">E9/$J$1</f>
+        <f t="shared" ref="M9:M14" si="5">E9/$J$1</f>
         <v>3.4325000000000001</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:N36" si="6">F9/$J$1</f>
+        <f t="shared" ref="N9:N16" si="6">F9/$J$1</f>
         <v>3.5465</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ref="O9:O36" si="7">G9/$J$1</f>
+        <f t="shared" ref="O9:O15" si="7">G9/$J$1</f>
         <v>3.173</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" ref="P9:P36" si="8">H9/$J$1</f>
+        <f t="shared" ref="P9:P16" si="8">H9/$J$1</f>
         <v>3.4895</v>
       </c>
       <c r="Q9" s="1"/>
@@ -2513,10 +2468,10 @@
         <v>2008.5</v>
       </c>
       <c r="G11" s="1">
-        <v>1297.5</v>
+        <v>1188.5</v>
       </c>
       <c r="H11" s="1">
-        <v>616.5</v>
+        <v>1338.5</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
@@ -2539,11 +2494,11 @@
       </c>
       <c r="O11" s="1">
         <f>G11/$J$1</f>
-        <v>1.2975000000000001</v>
+        <v>1.1884999999999999</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="8"/>
-        <v>0.61650000000000005</v>
+        <v>1.3385</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -2860,27 +2815,27 @@
         <v>0.17150000000000001</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" ref="K18:K36" si="9">C18/$J$1</f>
+        <f t="shared" ref="K18:K20" si="9">C18/$J$1</f>
         <v>0.16850000000000001</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" ref="L18:L36" si="10">D18/$J$1</f>
+        <f t="shared" ref="L18:L20" si="10">D18/$J$1</f>
         <v>0.34250000000000003</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" ref="M18:M36" si="11">E18/$J$1</f>
+        <f t="shared" ref="M18:M20" si="11">E18/$J$1</f>
         <v>0.2165</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" ref="N18:N36" si="12">F18/$J$1</f>
+        <f t="shared" ref="N18:N20" si="12">F18/$J$1</f>
         <v>0.2475</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" ref="O18:O36" si="13">G18/$J$1</f>
+        <f t="shared" ref="O18:O20" si="13">G18/$J$1</f>
         <v>0.21</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" ref="P18:P36" si="14">H18/$J$1</f>
+        <f t="shared" ref="P18:P20" si="14">H18/$J$1</f>
         <v>0.24199999999999999</v>
       </c>
       <c r="Q18" s="1"/>
@@ -3047,11 +3002,11 @@
         <v>3</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" ref="M22:M36" si="15">E22/$J$1</f>
+        <f t="shared" ref="M22:M33" si="15">E22/$J$1</f>
         <v>0.29349999999999998</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" ref="N22:N36" si="16">F22/$J$1</f>
+        <f t="shared" ref="N22:N35" si="16">F22/$J$1</f>
         <v>0.24299999999999999</v>
       </c>
       <c r="O22" s="1">
@@ -3176,11 +3131,11 @@
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K22:K36" si="19">C25/$J$1</f>
+        <f t="shared" ref="K25:K33" si="19">C25/$J$1</f>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L22:L36" si="20">D25/$J$1</f>
+        <f t="shared" ref="L25:L33" si="20">D25/$J$1</f>
         <v>0</v>
       </c>
       <c r="M25" s="1">
@@ -3759,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="B3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4533,16 +4488,16 @@
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -4550,7 +4505,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -4559,16 +4514,16 @@
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.1</v>
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -4580,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D986A7-CF01-4D48-8EAC-6CDCA4225485}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5103,7 +5058,7 @@
         <v>3500</v>
       </c>
       <c r="H26">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">

--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3646186-6B5E-4250-8EB6-8C09D676B4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA954E6-D0E5-4B18-AE3F-C7542C06905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -3714,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4429,24 +4429,12 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">

--- a/Structure/2 - Renewables/Economy/EconomyTables.xlsx
+++ b/Structure/2 - Renewables/Economy/EconomyTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\2 - Renewables\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA954E6-D0E5-4B18-AE3F-C7542C06905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8A11C6-5D4C-4822-AA19-E3F91DC6BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8DC04991-101B-4CB5-92BE-03305B936E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="29">
   <si>
     <t>Direct Activity</t>
   </si>
@@ -173,10 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -496,18 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B97BD-C3B7-4EBC-BBF4-D534DB48B2B7}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -529,8 +521,11 @@
       <c r="H1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -547,16 +542,19 @@
         <v>21800</v>
       </c>
       <c r="F2">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="G2">
-        <v>21700</v>
+        <v>21900</v>
       </c>
       <c r="H2">
-        <v>20500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20700</v>
+      </c>
+      <c r="I2">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -576,13 +574,16 @@
         <v>0.10238751147842057</v>
       </c>
       <c r="G3">
-        <v>0.10700197238658778</v>
+        <v>0.10662122687439143</v>
       </c>
       <c r="H3">
-        <v>9.8652550529355149E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9.7365945437441204E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.11438965238480193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -607,8 +608,11 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -633,8 +637,11 @@
       <c r="H7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -654,13 +661,16 @@
         <v>7400</v>
       </c>
       <c r="G9">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H9">
         <v>9000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -685,8 +695,11 @@
       <c r="H10">
         <v>2200</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -711,8 +724,11 @@
       <c r="H11">
         <v>2600</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -735,10 +751,13 @@
         <v>600</v>
       </c>
       <c r="H12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="I12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -761,10 +780,13 @@
         <v>700</v>
       </c>
       <c r="H13">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="I13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -786,11 +808,14 @@
       <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -815,8 +840,11 @@
       <c r="H15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -841,8 +869,11 @@
       <c r="H16">
         <v>2200</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -867,8 +898,11 @@
       <c r="H18">
         <v>1200</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -893,8 +927,11 @@
       <c r="H19">
         <v>1100</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -920,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -945,8 +982,11 @@
       <c r="H22">
         <v>600</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1012,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -998,33 +1038,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26">
+        <f>SUM(B27:B29)</f>
         <v>12100</v>
       </c>
       <c r="C26">
+        <f t="shared" ref="C26:I26" si="0">SUM(C27:C29)</f>
         <v>10400</v>
       </c>
       <c r="D26">
+        <f t="shared" si="0"/>
         <v>11700</v>
       </c>
       <c r="E26">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="F26">
+        <f t="shared" si="0"/>
         <v>11300</v>
       </c>
       <c r="G26">
-        <v>10900</v>
+        <f t="shared" si="0"/>
+        <v>11100</v>
       </c>
       <c r="H26">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>8600</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1049,8 +1100,11 @@
       <c r="H27">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1070,13 +1124,16 @@
         <v>8000</v>
       </c>
       <c r="G28">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H28">
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6500</v>
+      </c>
+      <c r="I28">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1101,8 +1158,11 @@
       <c r="H29">
         <v>1400</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1127,8 +1187,11 @@
       <c r="H31">
         <v>900</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1153,8 +1216,11 @@
       <c r="H32">
         <v>900</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1177,10 +1243,13 @@
         <v>300</v>
       </c>
       <c r="H34">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="I34">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1205,8 +1274,11 @@
       <c r="H35">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1230,6 +1302,9 @@
       </c>
       <c r="H36">
         <v>200</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1239,18 +1314,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C7C2C9-85F9-48BC-95E8-7D1E193D12DA}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -1272,8 +1348,11 @@
       <c r="H1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1293,53 +1372,51 @@
         <v>6.2374999999999998</v>
       </c>
       <c r="G2" s="1">
-        <v>5.67</v>
+        <v>5.8274999999999997</v>
       </c>
       <c r="H2">
-        <v>5.5054999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.2125000000000004</v>
+      </c>
+      <c r="I2">
+        <v>8.7174999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3393745923866407E-4</v>
+        <v>0.13393745923866407</v>
       </c>
       <c r="C3" s="1">
-        <v>1.3731996172439075E-4</v>
+        <v>0.13731996172439076</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4351622604137732E-4</v>
+        <v>0.14351622604137731</v>
       </c>
       <c r="E3" s="1">
-        <v>1.3462739797598901E-4</v>
+        <v>0.13462739797598899</v>
       </c>
       <c r="F3" s="1">
-        <v>1.3460729199261953E-4</v>
+        <v>0.13460729199261953</v>
       </c>
       <c r="G3" s="1">
-        <v>1.2870860100333689E-4</v>
+        <v>0.12722410217225194</v>
       </c>
       <c r="H3" s="1">
-        <v>1.3349579302150772E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.12515907508343938</v>
+      </c>
+      <c r="I3">
+        <v>0.16023343442698282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1356,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>3.218</v>
+        <v>3.2080000000000002</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -1364,8 +1441,12 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1">
+        <f>I10+I11+I12+I14+I19+I20+I22+I13</f>
+        <v>6.1260000000000012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1">
-        <v>3.0194999999999999</v>
+        <v>3.0295000000000001</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
@@ -1390,8 +1471,12 @@
       <c r="H7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1">
+        <f>I2-I6</f>
+        <v>2.5914999999999981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1399,7 +1484,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1419,13 +1504,16 @@
         <v>3.5465</v>
       </c>
       <c r="G9" s="1">
-        <v>3.173</v>
+        <v>3.3264999999999998</v>
       </c>
       <c r="H9">
-        <v>3.4895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.3201000000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.9044999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1445,13 +1533,16 @@
         <v>0.26250000000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.60250000000000004</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="H10">
-        <v>0.61650000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1471,13 +1562,16 @@
         <v>2.0085000000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>1.1884999999999999</v>
+        <v>1.4055</v>
       </c>
       <c r="H11" s="1">
-        <v>1.3385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0985</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.9835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1500,10 +1594,13 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>7.2499999999999995E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1523,13 +1620,16 @@
         <v>0.36299999999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>0.49049999999999999</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="H13">
-        <v>0.60750000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1552,10 +1652,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H14">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="I14">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1575,13 +1678,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="H15">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1604,10 +1710,13 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>0.84199999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.58050000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1615,7 +1724,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1632,16 +1741,19 @@
         <v>0.2165</v>
       </c>
       <c r="F18" s="1">
-        <v>0.2475</v>
+        <v>0.248</v>
       </c>
       <c r="G18" s="1">
-        <v>0.21</v>
+        <v>0.20949999999999999</v>
       </c>
       <c r="H18">
-        <v>0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1661,13 +1773,16 @@
         <v>0.19850000000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.185</v>
+        <v>0.1845</v>
       </c>
       <c r="H19">
-        <v>0.2155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.21</v>
+      </c>
+      <c r="I19">
+        <v>0.46750000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1684,16 +1799,19 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="F20" s="1">
-        <v>5.9499999999999997E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="G20" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H20">
-        <v>2.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="I20">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1701,7 +1819,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1724,10 +1842,13 @@
         <v>0.34949999999999998</v>
       </c>
       <c r="H22">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.1915</v>
+      </c>
+      <c r="I22">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -1750,10 +1871,13 @@
         <v>0.312</v>
       </c>
       <c r="H23">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1772,22 +1896,43 @@
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
-        <v>3.7499999999999999E-2</v>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1812,8 +1957,11 @@
       <c r="H26">
         <v>1.4235</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1833,13 +1981,16 @@
         <v>0.26150000000000001</v>
       </c>
       <c r="G27" s="1">
-        <v>0.16200000000000001</v>
+        <v>0.159</v>
       </c>
       <c r="H27">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.115</v>
+      </c>
+      <c r="I27">
+        <v>0.1135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1859,13 +2010,16 @@
         <v>1.6479999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>1.381</v>
+        <v>1.3895</v>
       </c>
       <c r="H28">
-        <v>1.1479999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.1745000000000001</v>
+      </c>
+      <c r="I28">
+        <v>1.5065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -1885,21 +2039,42 @@
         <v>0.1545</v>
       </c>
       <c r="G29" s="1">
-        <v>0.23849999999999999</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="H29">
-        <v>0.1565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.156</v>
+      </c>
+      <c r="I29">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1919,13 +2094,16 @@
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H31">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1945,21 +2123,42 @@
         <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="H32">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1978,14 +2177,17 @@
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="1">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="H34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2004,14 +2206,17 @@
       <c r="F35" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="G35" s="1">
-        <v>5.3999999999999999E-2</v>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2033,8 +2238,11 @@
       <c r="G36" s="1">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="H36">
-        <v>5.0000000000000001E-3</v>
+      <c r="H36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2044,18 +2252,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7DC55-D021-4CFA-B17C-CE7D394C244A}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -2077,11 +2285,14 @@
       <c r="H1">
         <v>2020</v>
       </c>
-      <c r="J1">
+      <c r="I1">
+        <v>2021</v>
+      </c>
+      <c r="K1">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2101,42 +2312,49 @@
         <v>6237.5</v>
       </c>
       <c r="G2" s="1">
-        <v>5670</v>
+        <v>5827.5</v>
       </c>
       <c r="H2" s="1">
-        <v>5505.5</v>
-      </c>
-      <c r="J2" s="1">
-        <f>B2/$J$1</f>
+        <v>5212.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8717.5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
+        <f>B2/$K$1</f>
         <v>5.8529999999999998</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:P3" si="0">C2/$J$1</f>
+      <c r="L2" s="1">
+        <f t="shared" ref="L2:R3" si="0">C2/$K$1</f>
         <v>5.5250000000000004</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <f t="shared" si="0"/>
         <v>5.9414999999999996</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <f t="shared" si="0"/>
         <v>5.9264999999999999</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <f t="shared" si="0"/>
         <v>6.2374999999999998</v>
       </c>
-      <c r="O2" s="1">
-        <f t="shared" si="0"/>
-        <v>5.67</v>
-      </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>5.5054999999999996</v>
-      </c>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>5.8274999999999997</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2125000000000004</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7174999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2156,48 +2374,53 @@
         <v>0.13460729199261953</v>
       </c>
       <c r="G3">
-        <v>0.12870860100333689</v>
+        <v>0.12722410217225194</v>
       </c>
       <c r="H3">
-        <v>0.13349579302150771</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:J33" si="1">B3/$J$1</f>
+        <v>0.12515907508343938</v>
+      </c>
+      <c r="I3">
+        <v>0.16023343442698282</v>
+      </c>
+      <c r="K3" s="1">
+        <f>B3/$K$1</f>
         <v>1.3393745923866407E-4</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>1.3731996172439075E-4</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>1.4351622604137732E-4</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <f t="shared" si="0"/>
         <v>1.3462739797598901E-4</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f t="shared" si="0"/>
         <v>1.3460729199261953E-4</v>
       </c>
-      <c r="O3" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2870860100333689E-4</v>
-      </c>
       <c r="P3" s="1">
         <f t="shared" si="0"/>
-        <v>1.3349579302150772E-4</v>
-      </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1.2722410217225194E-4</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2515907508343937E-4</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6023343442698283E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2205,14 +2428,14 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2220,8 +2443,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2240,7 +2464,7 @@
       </c>
       <c r="F6" s="1">
         <f>F10+F11+F12+F14+F19+F20+F22+F13</f>
-        <v>3218</v>
+        <v>3208</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>3</v>
@@ -2248,32 +2472,40 @@
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" si="1"/>
+      <c r="I6" s="1">
+        <f>I10+I11+I12+I14+I19+I20+I22+I13</f>
+        <v>6126</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <f>B6/$K$1</f>
         <v>2.7534999999999998</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" ref="N6:N7" si="2">F6/$J$1</f>
-        <v>3.218</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>3</v>
+      <c r="N6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6:O7" si="1">F6/$K$1</f>
+        <v>3.2080000000000002</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ref="R6:R7" si="2">I6/$K$1</f>
+        <v>6.1260000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2524,7 @@
       </c>
       <c r="F7" s="1">
         <f>F2-F6</f>
-        <v>3019.5</v>
+        <v>3029.5</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3</v>
@@ -2300,39 +2532,45 @@
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
+        <f>I2-I6</f>
+        <v>2591.5</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <f>B7/$K$1</f>
+        <v>3.0994999999999999</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
-        <v>3.0994999999999999</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="1">
+        <v>3.0295000000000001</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" si="2"/>
-        <v>3.0194999999999999</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2.5914999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -2340,8 +2578,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2361,42 +2600,49 @@
         <v>3546.5</v>
       </c>
       <c r="G9" s="1">
-        <v>3173</v>
+        <v>3326.5</v>
       </c>
       <c r="H9" s="1">
-        <v>3489.5</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <v>3320.1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5904.5</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K16" si="3">B9/$K$1</f>
         <v>3.0255000000000001</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" ref="K9:K14" si="3">C9/$J$1</f>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:L14" si="4">C9/$K$1</f>
         <v>3.3885000000000001</v>
       </c>
-      <c r="L9" s="1">
-        <f t="shared" ref="L9:L14" si="4">D9/$J$1</f>
+      <c r="M9" s="1">
+        <f t="shared" ref="M9:M14" si="5">D9/$K$1</f>
         <v>3.5684999999999998</v>
       </c>
-      <c r="M9" s="1">
-        <f t="shared" ref="M9:M14" si="5">E9/$J$1</f>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9:N14" si="6">E9/$K$1</f>
         <v>3.4325000000000001</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" ref="N9:N16" si="6">F9/$J$1</f>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O16" si="7">F9/$K$1</f>
         <v>3.5465</v>
       </c>
-      <c r="O9" s="1">
-        <f t="shared" ref="O9:O15" si="7">G9/$J$1</f>
-        <v>3.173</v>
-      </c>
       <c r="P9" s="1">
-        <f t="shared" ref="P9:P16" si="8">H9/$J$1</f>
-        <v>3.4895</v>
-      </c>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P9:P15" si="8">G9/$K$1</f>
+        <v>3.3264999999999998</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ref="Q9:R16" si="9">H9/$K$1</f>
+        <v>3.3201000000000001</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="9"/>
+        <v>5.9044999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2416,39 +2662,46 @@
         <v>262.5</v>
       </c>
       <c r="G10" s="1">
-        <v>602.5</v>
-      </c>
-      <c r="H10">
-        <v>616.5</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <v>547.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>600.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2594</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="6"/>
-        <v>0.26250000000000001</v>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="7"/>
-        <v>0.60250000000000004</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="8"/>
-        <v>0.61650000000000005</v>
-      </c>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="9"/>
+        <v>2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2465,44 +2718,51 @@
         <v>1414</v>
       </c>
       <c r="F11" s="1">
-        <v>2008.5</v>
+        <v>2008.5000000000002</v>
       </c>
       <c r="G11" s="1">
-        <v>1188.5</v>
+        <v>1405.5</v>
       </c>
       <c r="H11" s="1">
-        <v>1338.5</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <v>1098.5</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1983.5</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
         <v>1.6575</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="4"/>
-        <v>1.5714999999999999</v>
+      <c r="L11" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>1.4139999999999999</v>
+        <v>1.5714999999999999</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="6"/>
+        <v>1.4139999999999999</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="7"/>
         <v>2.0085000000000002</v>
       </c>
-      <c r="O11" s="1">
-        <f>G11/$J$1</f>
-        <v>1.1884999999999999</v>
-      </c>
       <c r="P11" s="1">
-        <f t="shared" si="8"/>
-        <v>1.3385</v>
-      </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <f>G11/$K$1</f>
+        <v>1.4055</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="9"/>
+        <v>1.0985</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="9"/>
+        <v>1.9835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2525,38 +2785,45 @@
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>72.5</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="1"/>
-        <v>5.1499999999999997E-2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="I12" s="1">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>7.1999999999999995E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>0.107</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>3.2500000000000001E-2</v>
+        <v>0.107</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="6"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="7"/>
         <v>6.8500000000000005E-2</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="1">
-        <f t="shared" si="8"/>
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="9"/>
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="9"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2576,42 +2843,49 @@
         <v>363</v>
       </c>
       <c r="G13" s="1">
-        <v>490.5</v>
+        <v>483</v>
       </c>
       <c r="H13" s="1">
-        <v>607.5</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.379</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="I13" s="1">
+        <v>674</v>
+      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>0.28199999999999997</v>
+        <v>0.379</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>0.32</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>0.55249999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="6"/>
-        <v>0.36299999999999999</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="7"/>
-        <v>0.49049999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="8"/>
-        <v>0.60750000000000004</v>
-      </c>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2634,39 +2908,46 @@
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>7</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>1.2999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>1.4E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="6"/>
-        <v>1.4500000000000001E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="7"/>
-        <v>3.0000000000000001E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="P14" s="1">
         <f t="shared" si="8"/>
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="9"/>
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2686,39 +2967,46 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H15" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="7"/>
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <f t="shared" si="8"/>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="9"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2741,42 +3029,48 @@
         <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>842</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <v>838.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>580.5</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
         <v>0.80300000000000005</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="6"/>
+      <c r="N16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="7"/>
         <v>0.82899999999999996</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" s="1">
-        <f t="shared" si="8"/>
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.58050000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2784,8 +3078,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2802,45 +3097,51 @@
         <v>216.5</v>
       </c>
       <c r="F18" s="1">
-        <v>247.5</v>
+        <v>248</v>
       </c>
       <c r="G18" s="1">
-        <v>210</v>
+        <v>209.5</v>
       </c>
       <c r="H18" s="1">
-        <v>242</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="I18" s="1">
+        <v>515</v>
+      </c>
+      <c r="K18" s="1">
+        <f>B18/$K$1</f>
         <v>0.17150000000000001</v>
       </c>
-      <c r="K18" s="1">
-        <f t="shared" ref="K18:K20" si="9">C18/$J$1</f>
+      <c r="L18" s="1">
+        <f t="shared" ref="L18:L20" si="10">C18/$K$1</f>
         <v>0.16850000000000001</v>
       </c>
-      <c r="L18" s="1">
-        <f t="shared" ref="L18:L20" si="10">D18/$J$1</f>
+      <c r="M18" s="1">
+        <f t="shared" ref="M18:M20" si="11">D18/$K$1</f>
         <v>0.34250000000000003</v>
       </c>
-      <c r="M18" s="1">
-        <f t="shared" ref="M18:M20" si="11">E18/$J$1</f>
+      <c r="N18" s="1">
+        <f t="shared" ref="N18:N20" si="12">E18/$K$1</f>
         <v>0.2165</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" ref="N18:N20" si="12">F18/$J$1</f>
-        <v>0.2475</v>
-      </c>
       <c r="O18" s="1">
-        <f t="shared" ref="O18:O20" si="13">G18/$J$1</f>
-        <v>0.21</v>
+        <f t="shared" ref="O18:O20" si="13">F18/$K$1</f>
+        <v>0.248</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" ref="P18:P20" si="14">H18/$J$1</f>
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P18:P20" si="14">G18/$K$1</f>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" ref="Q18:R20" si="15">H18/$K$1</f>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2860,42 +3161,48 @@
         <v>198.5</v>
       </c>
       <c r="G19" s="1">
-        <v>185</v>
+        <v>184.5</v>
       </c>
       <c r="H19" s="1">
-        <v>215.5</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="I19" s="1">
+        <v>467.5</v>
+      </c>
+      <c r="K19" s="1">
+        <f>B19/$K$1</f>
         <v>0.14299999999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="9"/>
-        <v>0.106</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="10"/>
-        <v>0.224</v>
+        <v>0.106</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="11"/>
-        <v>0.1845</v>
+        <v>0.224</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="12"/>
-        <v>0.19850000000000001</v>
+        <v>0.1845</v>
       </c>
       <c r="O19" s="1">
         <f t="shared" si="13"/>
-        <v>0.185</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="P19" s="1">
         <f t="shared" si="14"/>
-        <v>0.2155</v>
-      </c>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.1845</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="15"/>
+        <v>0.21</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="15"/>
+        <v>0.46750000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2912,52 +3219,57 @@
         <v>32</v>
       </c>
       <c r="F20" s="1">
-        <v>59.5</v>
+        <v>49.5</v>
       </c>
       <c r="G20" s="1">
         <v>25</v>
       </c>
       <c r="H20" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I20" s="1">
+        <v>47.5</v>
+      </c>
+      <c r="K20" s="1">
+        <f>B20/$K$1</f>
         <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="9"/>
-        <v>6.25E-2</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="10"/>
-        <v>0.11849999999999999</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="11"/>
-        <v>3.2000000000000001E-2</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="12"/>
-        <v>5.9499999999999997E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="O20" s="1">
         <f t="shared" si="13"/>
-        <v>2.5000000000000001E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="P20" s="1">
         <f t="shared" si="14"/>
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="15"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2965,8 +3277,9 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -2989,37 +3302,43 @@
         <v>349.5</v>
       </c>
       <c r="H22" s="1">
-        <v>191</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="1"/>
+        <v>191.5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>288</v>
+      </c>
+      <c r="K22" s="1">
+        <f>B22/$K$1</f>
         <v>0.3695</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="1">
-        <f t="shared" ref="M22:M33" si="15">E22/$J$1</f>
+      <c r="M22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" ref="N22:N33" si="16">E22/$K$1</f>
         <v>0.29349999999999998</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" ref="N22:N35" si="16">F22/$J$1</f>
+      <c r="O22" s="1">
+        <f t="shared" ref="O22:O35" si="17">F22/$K$1</f>
         <v>0.24299999999999999</v>
       </c>
-      <c r="O22" s="1">
-        <f t="shared" ref="O22:O36" si="17">G22/$J$1</f>
+      <c r="P22" s="1">
+        <f t="shared" ref="P22:P36" si="18">G22/$K$1</f>
         <v>0.34949999999999998</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" ref="P22:P36" si="18">H22/$J$1</f>
-        <v>0.191</v>
-      </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q22" s="1">
+        <f t="shared" ref="Q22:R36" si="19">H22/$K$1</f>
+        <v>0.1915</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="19"/>
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3042,10 +3361,10 @@
         <v>312</v>
       </c>
       <c r="H23" s="1">
-        <v>175</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
+      </c>
+      <c r="I23" s="1">
+        <v>268</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>3</v>
@@ -3059,17 +3378,23 @@
       <c r="N23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="1">
-        <f t="shared" si="17"/>
-        <v>0.312</v>
+      <c r="O23" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="18"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.312</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="19"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="19"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3088,14 +3413,14 @@
       <c r="F24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="1">
-        <v>37.5</v>
+      <c r="G24" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>16</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>3</v>
+        <v>14.5</v>
+      </c>
+      <c r="I24" s="1">
+        <v>20</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>3</v>
@@ -3109,37 +3434,38 @@
       <c r="N24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" si="17"/>
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6E-2</v>
-      </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="19"/>
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="19"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="J25" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K25" s="1">
-        <f t="shared" ref="K25:K33" si="19">C25/$J$1</f>
+        <f t="shared" ref="K25:K30" si="20">B25/$K$1</f>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" ref="L25:L33" si="20">D25/$J$1</f>
+        <f t="shared" ref="L25:L33" si="21">C25/$K$1</f>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="M25:M33" si="22">D25/$K$1</f>
         <v>0</v>
       </c>
       <c r="N25" s="1">
@@ -3154,9 +3480,16 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q25" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3181,37 +3514,40 @@
       <c r="H26" s="1">
         <v>1423.5</v>
       </c>
-      <c r="J26" s="1">
-        <f t="shared" si="1"/>
+      <c r="K26" s="1">
+        <f t="shared" si="20"/>
         <v>2.1429999999999998</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="19"/>
+      <c r="L26" s="1">
+        <f t="shared" si="21"/>
         <v>1.387</v>
       </c>
-      <c r="L26" s="1">
-        <f t="shared" si="20"/>
+      <c r="M26" s="1">
+        <f t="shared" si="22"/>
         <v>1.5994999999999999</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="15"/>
-        <v>1.8440000000000001</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="16"/>
-        <v>2.0640000000000001</v>
+        <v>1.8440000000000001</v>
       </c>
       <c r="O26" s="1">
         <f t="shared" si="17"/>
-        <v>1.7815000000000001</v>
+        <v>2.0640000000000001</v>
       </c>
       <c r="P26" s="1">
         <f t="shared" si="18"/>
+        <v>1.7815000000000001</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="19"/>
         <v>1.4235</v>
       </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3231,42 +3567,48 @@
         <v>261.5</v>
       </c>
       <c r="G27" s="1">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H27" s="1">
-        <v>119</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="I27" s="1">
+        <v>113.5</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="20"/>
         <v>0.14199999999999999</v>
       </c>
-      <c r="K27" s="1">
-        <f t="shared" si="19"/>
+      <c r="L27" s="1">
+        <f t="shared" si="21"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L27" s="1">
-        <f t="shared" si="20"/>
+      <c r="M27" s="1">
+        <f t="shared" si="22"/>
         <v>0.14749999999999999</v>
-      </c>
-      <c r="M27" s="1">
-        <f t="shared" si="15"/>
-        <v>0.1295</v>
       </c>
       <c r="N27" s="1">
         <f t="shared" si="16"/>
-        <v>0.26150000000000001</v>
+        <v>0.1295</v>
       </c>
       <c r="O27" s="1">
         <f t="shared" si="17"/>
-        <v>0.16200000000000001</v>
+        <v>0.26150000000000001</v>
       </c>
       <c r="P27" s="1">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.159</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="19"/>
+        <v>0.115</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="19"/>
+        <v>0.1135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3286,42 +3628,48 @@
         <v>1648</v>
       </c>
       <c r="G28" s="1">
-        <v>1381</v>
+        <v>1389.5</v>
       </c>
       <c r="H28" s="1">
-        <v>1148</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="1"/>
+        <v>1174.5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1506.5</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="20"/>
         <v>1.8825000000000001</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="19"/>
+      <c r="L28" s="1">
+        <f t="shared" si="21"/>
         <v>1.111</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" si="20"/>
+      <c r="M28" s="1">
+        <f t="shared" si="22"/>
         <v>1.2304999999999999</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" si="15"/>
-        <v>1.5035000000000001</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" si="16"/>
-        <v>1.6479999999999999</v>
+        <v>1.5035000000000001</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" si="17"/>
-        <v>1.381</v>
+        <v>1.6479999999999999</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="18"/>
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+        <v>1.3895</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="19"/>
+        <v>1.1745000000000001</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="19"/>
+        <v>1.5065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3341,62 +3689,64 @@
         <v>154.5</v>
       </c>
       <c r="G29" s="1">
-        <v>238.5</v>
+        <v>239.5</v>
       </c>
       <c r="H29" s="1">
-        <v>156.5</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="I29" s="1">
+        <v>146</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="20"/>
         <v>0.11849999999999999</v>
       </c>
-      <c r="K29" s="1">
-        <f t="shared" si="19"/>
+      <c r="L29" s="1">
+        <f t="shared" si="21"/>
         <v>0.193</v>
       </c>
-      <c r="L29" s="1">
-        <f t="shared" si="20"/>
+      <c r="M29" s="1">
+        <f t="shared" si="22"/>
         <v>0.2215</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="15"/>
-        <v>0.21149999999999999</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="16"/>
-        <v>0.1545</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="O29" s="1">
         <f t="shared" si="17"/>
-        <v>0.23849999999999999</v>
+        <v>0.1545</v>
       </c>
       <c r="P29" s="1">
         <f t="shared" si="18"/>
-        <v>0.1565</v>
-      </c>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="19"/>
+        <v>0.156</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="19"/>
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="J30" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K30" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N30" s="1">
@@ -3411,9 +3761,16 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q30" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3433,39 +3790,44 @@
         <v>3</v>
       </c>
       <c r="G31" s="1">
-        <v>72</v>
-      </c>
-      <c r="H31" s="1">
-        <v>110</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="19"/>
+        <v>71.5</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="21"/>
         <v>0.17449999999999999</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" si="20"/>
+      <c r="M31" s="1">
+        <f t="shared" si="22"/>
         <v>0.17599999999999999</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="N31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="1">
-        <f t="shared" si="17"/>
-        <v>7.1999999999999995E-2</v>
+      <c r="O31" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="18"/>
-        <v>0.11</v>
-      </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R31" s="1">
+        <f>I31/$K$1</f>
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3485,59 +3847,60 @@
         <v>3</v>
       </c>
       <c r="G32" s="1">
-        <v>72</v>
-      </c>
-      <c r="H32" s="1">
-        <v>110</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="19"/>
+        <v>71.5</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>104.5</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="21"/>
         <v>0.17449999999999999</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="20"/>
+      <c r="M32" s="1">
+        <f t="shared" si="22"/>
         <v>0.17599999999999999</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="1">
-        <f t="shared" si="17"/>
-        <v>7.1999999999999995E-2</v>
+      <c r="O32" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="18"/>
-        <v>0.11</v>
-      </c>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="19"/>
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="J33" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="K33" s="1">
-        <f t="shared" si="19"/>
+        <f>B33/$K$1</f>
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N33" s="1">
@@ -3552,9 +3915,16 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q33" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3573,13 +3943,13 @@
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="1">
-        <v>83.5</v>
-      </c>
-      <c r="H34" s="1">
-        <v>50</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -3594,17 +3964,20 @@
       <c r="N34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O34" s="1">
-        <f t="shared" si="17"/>
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="P34" s="1">
-        <f t="shared" si="18"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3623,13 +3996,13 @@
       <c r="F35" s="1">
         <v>63</v>
       </c>
-      <c r="G35" s="1">
-        <v>54</v>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>45</v>
-      </c>
-      <c r="J35" s="1" t="s">
+        <v>32.5</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -3641,26 +4014,30 @@
       <c r="M35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="1">
-        <f t="shared" si="16"/>
-        <v>6.3E-2</v>
+      <c r="N35" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="O35" s="1">
         <f t="shared" si="17"/>
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="P35" s="1">
-        <f t="shared" si="18"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="19"/>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
+      <c r="B36" s="1">
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -3677,11 +4054,11 @@
       <c r="G36" s="1">
         <v>29.5</v>
       </c>
-      <c r="H36" s="1">
-        <v>5</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>3</v>
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>7</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>3</v>
@@ -3695,15 +4072,20 @@
       <c r="N36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O36" s="1">
-        <f t="shared" si="17"/>
-        <v>2.9499999999999998E-2</v>
+      <c r="O36" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="18"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Q36" s="1"/>
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="19"/>
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3714,17 +4096,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC4659-A542-4DDC-984B-50393A116E63}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -3746,8 +4128,11 @@
       <c r="H1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3767,14 +4152,16 @@
         <v>363.5</v>
       </c>
       <c r="G2" s="1">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="H2" s="1">
-        <v>384.5</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>400.5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1345.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3794,13 +4181,16 @@
         <v>6.8955705207246518E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>5.3425129087779688E-2</v>
+        <v>5.4474708171206226E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>6.2960537088586871E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6.4249618994144539E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.12935012497596615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3808,7 +4198,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3816,7 +4206,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3841,8 +4231,11 @@
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3867,8 +4260,11 @@
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3876,7 +4272,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3895,14 +4291,17 @@
       <c r="F9" s="1">
         <v>79.5</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
+      <c r="G9" s="1">
+        <v>87.5</v>
       </c>
       <c r="H9" s="1">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3922,13 +4321,16 @@
         <v>37</v>
       </c>
       <c r="G10" s="1">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="H10" s="1">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56.5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3948,13 +4350,16 @@
         <v>18.5</v>
       </c>
       <c r="G11" s="1">
-        <v>47</v>
+        <v>61.5</v>
       </c>
       <c r="H11" s="1">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30.5</v>
+      </c>
+      <c r="I11">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3977,10 +4382,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4005,8 +4413,11 @@
       <c r="H13" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4031,8 +4442,11 @@
       <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4057,8 +4471,11 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4083,8 +4500,11 @@
       <c r="H16" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4092,7 +4512,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4117,8 +4537,11 @@
       <c r="H18" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4143,8 +4566,11 @@
       <c r="H19" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4169,8 +4595,11 @@
       <c r="H20" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4178,7 +4607,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4197,14 +4626,17 @@
       <c r="F22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="1">
-        <v>4.5</v>
+      <c r="G22" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4223,14 +4655,17 @@
       <c r="F23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="1">
-        <v>4.5</v>
+      <c r="G23" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4255,8 +4690,11 @@
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4264,7 +4702,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -4289,8 +4727,11 @@
       <c r="H26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4315,8 +4756,11 @@
       <c r="H27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4341,8 +4785,11 @@
       <c r="H28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4367,8 +4814,11 @@
       <c r="H29" s="1">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4376,7 +4826,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -4395,14 +4845,17 @@
       <c r="F31" s="1">
         <v>13</v>
       </c>
-      <c r="G31" s="1">
-        <v>8</v>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -4421,14 +4874,17 @@
       <c r="F32" s="1">
         <v>13</v>
       </c>
-      <c r="G32" s="1">
-        <v>8</v>
+      <c r="G32" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H32" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4436,7 +4892,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4455,14 +4911,17 @@
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="1">
-        <v>12</v>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="H34" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -4487,8 +4946,11 @@
       <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4507,11 +4969,14 @@
       <c r="F36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>3</v>
+      <c r="G36" s="1">
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4521,18 +4986,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D986A7-CF01-4D48-8EAC-6CDCA4225485}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2014</v>
       </c>
@@ -4554,34 +5019,40 @@
       <c r="H1">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>11500</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>18000</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>9000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>10500</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>10000</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>13500</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4600,14 +5071,17 @@
       <c r="F3">
         <v>0.11235955056179775</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.21428571428571427</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>0.12345679012345678</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4632,8 +5106,11 @@
       <c r="H6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4658,34 +5135,40 @@
       <c r="H7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>4500</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>10500</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2000</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>6000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>5500</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>9000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>6500</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4707,63 +5190,72 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>1500</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>2000</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>4500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>2000</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>2000</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>2500</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>1500</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>4000</v>
       </c>
       <c r="D12">
         <v>500</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2500</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>2500</v>
       </c>
       <c r="G12">
         <v>500</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>3000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4776,7 +5268,7 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1000</v>
       </c>
       <c r="F13" t="s">
@@ -4788,8 +5280,11 @@
       <c r="H13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4814,8 +5309,11 @@
       <c r="H14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4840,8 +5338,11 @@
       <c r="H15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4866,8 +5367,11 @@
       <c r="H16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -4892,8 +5396,11 @@
       <c r="H18">
         <v>500</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -4918,8 +5425,11 @@
       <c r="H19">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4944,8 +5454,11 @@
       <c r="H20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4970,8 +5483,11 @@
       <c r="H22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4996,8 +5512,11 @@
       <c r="H23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5022,8 +5541,11 @@
       <c r="H24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5046,10 +5568,13 @@
         <v>3500</v>
       </c>
       <c r="H26">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+      <c r="I26">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5074,8 +5599,11 @@
       <c r="H27">
         <v>500</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5100,8 +5628,11 @@
       <c r="H28">
         <v>1500</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5126,8 +5657,11 @@
       <c r="H29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -5152,8 +5686,11 @@
       <c r="H31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -5178,8 +5715,11 @@
       <c r="H32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -5204,8 +5744,11 @@
       <c r="H34">
         <v>500</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -5230,8 +5773,11 @@
       <c r="H35">
         <v>500</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -5254,6 +5800,9 @@
         <v>7</v>
       </c>
       <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
         <v>7</v>
       </c>
     </row>
